--- a/arquivos/dados.xlsx
+++ b/arquivos/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\policia\Desktop\geocoords\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\geocoords\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D370A9-D7BA-446E-9222-7B3194467542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD324B9A-512C-44FD-8DE2-87F53BE2EB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{2BCCEC44-D8A3-42E5-B4B5-2BCC45D9A1AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BCCEC44-D8A3-42E5-B4B5-2BCC45D9A1AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>BELÉM</t>
   </si>
   <si>
-    <t>PARÁ, BRASIL</t>
-  </si>
-  <si>
-    <t>EMPIRE STATE BUILDING</t>
-  </si>
-  <si>
-    <t>NOVA YORK, EUA</t>
-  </si>
-  <si>
-    <t>CRISTO REDENTOR</t>
-  </si>
-  <si>
-    <t>RIO DE JANEIRO, BRASIL</t>
-  </si>
-  <si>
-    <t>PARQUE NACIONAL DA TIJUCA</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -61,12 +43,18 @@
   </si>
   <si>
     <t>descricao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARÁ, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,17 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,107 +453,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80CF6F3-E155-49E5-81F7-8D1BDFC812E6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1501402</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-14558</v>
+        <v>-14.55</v>
       </c>
       <c r="D2" s="2">
-        <v>-485042</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>82001192</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40748817</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-73985428</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>330029</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-229083</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-432149</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>330029</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>-485.02199999999999</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-229083</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-432149</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>